--- a/medicine/Enfance/Chiaki_Miyamoto/Chiaki_Miyamoto.xlsx
+++ b/medicine/Enfance/Chiaki_Miyamoto/Chiaki_Miyamoto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chiaki Miyamoto  est une illustratrice japonaise d'albums pour la jeunesse née le 11 août 1975 à Osaka, au Japon. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née en 1975 au Japon, Chiaki Miyamoto est diplômée de l’école professionnelle de communication visuelle d’Osaka, sa ville natale.
 Après une première expérience de graphiste au Japon, elle s’installe en France en 2000 pour concrétiser sa grande passion : devenir illustratrice pour enfants.
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,7 +587,9 @@
           <t>Titres publiés en France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le Perroquet de l'empereur - Course à travers le Japon !, texte de Davide Cali, publié chez nobi nobi !
 Les couleurs de Bilo, texte d'Alain Chiche, publié chez nobi nobi !
